--- a/cluster_tutorial/resources/compute_nodes.xlsx
+++ b/cluster_tutorial/resources/compute_nodes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user_\Documents\vs_projects\scientific_computing_docs\tutorials\cluster_tutorial\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user_\Documents\vs_projects\sc_tutorials\cluster_tutorial\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C63AD516-37E9-4C8D-A3BF-1CC4690A3948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C0BE9A-1FA7-4060-BA7E-6F96E7C9C8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F9E513EB-FF56-49C7-9EC2-1642C542115D}"/>
   </bookViews>
@@ -141,9 +141,6 @@
     <t>r7,p2,c48,t96,m256,d250,nvidia</t>
   </si>
   <si>
-    <t>NVIDIA A40 48GB GPU for HPE</t>
-  </si>
-  <si>
     <t>gpu2</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>r6,p2,c48,t96,m2000,d4800</t>
+  </si>
+  <si>
+    <t>NVIDIA A40 48GB</t>
   </si>
 </sst>
 </file>
@@ -172,20 +172,37 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -195,10 +212,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,60 +534,63 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -581,37 +601,37 @@
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>7</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>28</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2.65</v>
-      </c>
-      <c r="J2" s="1">
-        <v>48</v>
-      </c>
-      <c r="K2" s="1">
-        <v>256</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="J2" s="2">
+        <v>48</v>
+      </c>
+      <c r="K2" s="2">
+        <v>256</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -622,37 +642,37 @@
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>6</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>28</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2.65</v>
-      </c>
-      <c r="J3" s="1">
-        <v>48</v>
-      </c>
-      <c r="K3" s="1">
-        <v>256</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="J3" s="2">
+        <v>48</v>
+      </c>
+      <c r="K3" s="2">
+        <v>256</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -663,37 +683,37 @@
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>7</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>26</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2.65</v>
-      </c>
-      <c r="J4" s="1">
-        <v>48</v>
-      </c>
-      <c r="K4" s="1">
-        <v>256</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="J4" s="2">
+        <v>48</v>
+      </c>
+      <c r="K4" s="2">
+        <v>256</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -704,37 +724,37 @@
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>6</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>26</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2.65</v>
-      </c>
-      <c r="J5" s="1">
-        <v>48</v>
-      </c>
-      <c r="K5" s="1">
-        <v>256</v>
-      </c>
-      <c r="L5" s="1" t="s">
+      <c r="H5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="J5" s="2">
+        <v>48</v>
+      </c>
+      <c r="K5" s="2">
+        <v>256</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -745,37 +765,37 @@
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>7</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>24</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2.65</v>
-      </c>
-      <c r="J6" s="1">
-        <v>48</v>
-      </c>
-      <c r="K6" s="1">
-        <v>256</v>
-      </c>
-      <c r="L6" s="1" t="s">
+      <c r="H6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="J6" s="2">
+        <v>48</v>
+      </c>
+      <c r="K6" s="2">
+        <v>256</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -786,37 +806,37 @@
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>6</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>24</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="1">
-        <v>2.65</v>
-      </c>
-      <c r="J7" s="1">
-        <v>48</v>
-      </c>
-      <c r="K7" s="1">
-        <v>256</v>
-      </c>
-      <c r="L7" s="1" t="s">
+      <c r="H7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="J7" s="2">
+        <v>48</v>
+      </c>
+      <c r="K7" s="2">
+        <v>256</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -827,37 +847,37 @@
       <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>7</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>22</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="1">
-        <v>2.65</v>
-      </c>
-      <c r="J8" s="1">
-        <v>48</v>
-      </c>
-      <c r="K8" s="1">
-        <v>256</v>
-      </c>
-      <c r="L8" s="1" t="s">
+      <c r="H8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="J8" s="2">
+        <v>48</v>
+      </c>
+      <c r="K8" s="2">
+        <v>256</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -868,37 +888,37 @@
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>6</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>22</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="1">
-        <v>2.65</v>
-      </c>
-      <c r="J9" s="1">
-        <v>48</v>
-      </c>
-      <c r="K9" s="1">
-        <v>256</v>
-      </c>
-      <c r="L9" s="1" t="s">
+      <c r="H9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="J9" s="2">
+        <v>48</v>
+      </c>
+      <c r="K9" s="2">
+        <v>256</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -909,37 +929,37 @@
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>7</v>
       </c>
-      <c r="E10" s="1">
-        <v>20</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="2">
+        <v>20</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="1">
-        <v>2.65</v>
-      </c>
-      <c r="J10" s="1">
-        <v>48</v>
-      </c>
-      <c r="K10" s="1">
-        <v>256</v>
-      </c>
-      <c r="L10" s="1" t="s">
+      <c r="H10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="J10" s="2">
+        <v>48</v>
+      </c>
+      <c r="K10" s="2">
+        <v>256</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -950,37 +970,37 @@
       <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>6</v>
       </c>
-      <c r="E11" s="1">
-        <v>20</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="E11" s="2">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="1">
-        <v>2.65</v>
-      </c>
-      <c r="J11" s="1">
-        <v>48</v>
-      </c>
-      <c r="K11" s="1">
-        <v>256</v>
-      </c>
-      <c r="L11" s="1" t="s">
+      <c r="H11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="J11" s="2">
+        <v>48</v>
+      </c>
+      <c r="K11" s="2">
+        <v>256</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -991,37 +1011,37 @@
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>7</v>
       </c>
-      <c r="E12" s="1">
-        <v>18</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="2">
+        <v>18</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="1">
-        <v>2.65</v>
-      </c>
-      <c r="J12" s="1">
-        <v>48</v>
-      </c>
-      <c r="K12" s="1">
-        <v>256</v>
-      </c>
-      <c r="L12" s="1" t="s">
+      <c r="H12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="J12" s="2">
+        <v>48</v>
+      </c>
+      <c r="K12" s="2">
+        <v>256</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1032,37 +1052,37 @@
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>7</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>30</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="1">
-        <v>2.65</v>
-      </c>
-      <c r="J13" s="1">
-        <v>48</v>
-      </c>
-      <c r="K13" s="1">
-        <v>256</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M13" s="1" t="s">
+      <c r="H13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="J13" s="2">
+        <v>48</v>
+      </c>
+      <c r="K13" s="2">
+        <v>256</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1073,37 +1093,37 @@
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="2">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2">
+        <v>30</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="1">
-        <v>6</v>
-      </c>
-      <c r="E14" s="1">
-        <v>30</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="1">
-        <v>2.65</v>
-      </c>
-      <c r="J14" s="1">
-        <v>48</v>
-      </c>
-      <c r="K14" s="1">
-        <v>256</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M14" s="1" t="s">
+      <c r="H14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="J14" s="2">
+        <v>48</v>
+      </c>
+      <c r="K14" s="2">
+        <v>256</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1114,41 +1134,42 @@
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="2">
+        <v>6</v>
+      </c>
+      <c r="E15" s="2">
+        <v>32</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="1">
-        <v>6</v>
-      </c>
-      <c r="E15" s="1">
-        <v>32</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="1">
-        <v>2.65</v>
-      </c>
-      <c r="J15" s="1">
-        <v>48</v>
-      </c>
-      <c r="K15" s="1">
+      <c r="H15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2.65</v>
+      </c>
+      <c r="J15" s="2">
+        <v>48</v>
+      </c>
+      <c r="K15" s="2">
         <v>2048</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>